--- a/examples/excel-example2.xlsx
+++ b/examples/excel-example2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konrad.pagacz\Desktop\workspace\glyculator\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB18E93E-8C79-4F3D-979E-2EFDC984565C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B27C7B-935E-45D4-B42A-FF723C4878A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>ID</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>time</t>
-  </si>
-  <si>
-    <t>43686</t>
   </si>
 </sst>
 </file>
@@ -80,7 +77,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -364,7 +361,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -392,8 +389,8 @@
       <c r="B3">
         <v>78</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
+      <c r="C3" s="1">
+        <v>43686</v>
       </c>
       <c r="D3">
         <v>0.33333333329999998</v>
@@ -403,8 +400,8 @@
       <c r="B4">
         <v>80</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
+      <c r="C4" s="1">
+        <v>43686</v>
       </c>
       <c r="D4">
         <v>0.33680555559999997</v>
@@ -414,8 +411,8 @@
       <c r="B5">
         <v>83</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
+      <c r="C5" s="1">
+        <v>43686</v>
       </c>
       <c r="D5">
         <v>0.34027777780000001</v>
@@ -425,8 +422,8 @@
       <c r="B6">
         <v>79</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
+      <c r="C6" s="1">
+        <v>43686</v>
       </c>
       <c r="D6">
         <v>0.34375</v>
